--- a/Modelos/Tentativa 3/Métricas.xlsx
+++ b/Modelos/Tentativa 3/Métricas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Modelo 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Tentativa 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB424AE8-F9F3-460E-89D9-11115EB0AF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599EB9B2-D6D6-4F56-8EBD-AE026ADD226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,14 +414,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -548,16 +550,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.98454404945904173</v>
+        <v>0.97681607418856264</v>
       </c>
       <c r="C8" s="2">
-        <v>0.72727272727272729</v>
+        <v>0.5</v>
       </c>
       <c r="D8" s="2">
-        <v>0.53333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="E8" s="2">
-        <v>0.61538461538461531</v>
+        <v>0.44444444444444448</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -786,16 +788,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>0.89489953632148378</v>
+        <v>0.86862442040185472</v>
       </c>
       <c r="C22" s="2">
-        <v>0.59848484848484851</v>
+        <v>0.5298013245033113</v>
       </c>
       <c r="D22" s="2">
-        <v>0.84042553191489366</v>
+        <v>0.85106382978723405</v>
       </c>
       <c r="E22" s="2">
-        <v>0.6991150442477877</v>
+        <v>0.65306122448979609</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1007,16 +1009,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>0.79598145285935085</v>
+        <v>0.80989180834621333</v>
       </c>
       <c r="C35" s="2">
-        <v>0.75502008032128509</v>
+        <v>0.77338877338877343</v>
       </c>
       <c r="D35" s="2">
-        <v>0.97409326424870468</v>
+        <v>0.96373056994818651</v>
       </c>
       <c r="E35" s="2">
-        <v>0.85067873303167418</v>
+        <v>0.8581314878892734</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1024,7 +1026,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>0.95517774343122097</v>
+        <v>0.95981452859350846</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
